--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>HealthcareService.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -511,7 +511,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -554,7 +554,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1047,7 +1047,7 @@
     <t>HealthcareService.extension.extension.value[x].low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1446,7 +1446,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1530,7 +1530,7 @@
     <t>HealthcareService.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
     <t>A category of the service(s) that could be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://hl7.org/fhir/ValueSet/service-category|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1633,7 +1633,7 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1670,13 +1670,13 @@
     <t>A specialty that a healthcare service may provide.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1797,7 +1797,7 @@
     <t>The provision means being commissioned by, contractually obliged or financially sourced. Types of costings that may apply to this healthcare service, such if the service may be available for free, some discounts available, or fees apply.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions</t>
+    <t>http://hl7.org/fhir/ValueSet/service-provision-conditions|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PRCN].observation[moodCode=EVN.CRT]</t>
@@ -1884,7 +1884,7 @@
     <t>Government or local programs that this service applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/program</t>
+    <t>http://hl7.org/fhir/ValueSet/program|4.0.1</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=PERT].observation</t>
@@ -1929,7 +1929,7 @@
     <t>The methods of referral can be used when referring to a specific HealthCareService resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-referral-method</t>
+    <t>http://hl7.org/fhir/ValueSet/service-referral-method|4.0.1</t>
   </si>
   <si>
     <t>HealthcareService.appointmentRequired</t>
@@ -2062,7 +2062,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -3106,7 +3106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>195</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>273</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>314</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>359</v>
       </c>
@@ -20609,7 +20609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>579</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>607</v>
       </c>
@@ -23582,12 +23582,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM192">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
